--- a/output/vignettes_DE.xlsx
+++ b/output/vignettes_DE.xlsx
@@ -65,7 +65,7 @@
     <t>45</t>
   </si>
   <si>
-    <t>35</t>
+    <t>25</t>
   </si>
   <si>
     <t>65</t>
@@ -197,13 +197,13 @@
     <t>Person A ist männlich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person A hat eine qualifizierte Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
-    <t>Person B ist männlich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person B hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person B wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+    <t>Person B ist männlich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person B hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person B wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
     <t>Person C ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person C hat eine einfache Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person D ist weiblich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person D hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person D wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person D hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person D wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
     <t>Person E ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person E hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person E wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
@@ -212,7 +212,7 @@
     <t>Person F ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person F hat ein Hochschulstudium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person F wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person G ist männlich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person G hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person G wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person G ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person G hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person G wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
     <t>Person H ist weiblich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
@@ -236,10 +236,10 @@
     <t>Person D ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person D hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person E ist weiblich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person E hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person F ist männlich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person F hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person F wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person E ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person E hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person F ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person F hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person F wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
     <t>Person G ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person G hat nach dem Abitur ein Studium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
@@ -248,13 +248,13 @@
     <t>Person H ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Christin. Person H hat eine qualifizierte Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
-    <t>Person I ist männlich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person I hat eine einfache Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person I wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+    <t>Person I ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person I hat eine einfache Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person I wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
     <t>Person J ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person J hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
-    <t>Person A ist männlich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person A hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+    <t>Person A ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person A hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
     <t>Person B ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person B hat eine qualifizierte Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
@@ -263,7 +263,7 @@
     <t>Person C ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person C hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person D ist männlich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person D hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person D wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person D ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person D hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person D wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
     <t>Person E ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person E hat ein Hochschulstudium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person E wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
@@ -275,22 +275,22 @@
     <t>Person G ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person G hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person H ist weiblich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person H ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
     <t>Person I ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person I hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person I wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
-    <t>Person J ist weiblich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person J hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person J wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person A ist weiblich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person A hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+    <t>Person J ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person J hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person J wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person A ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person A hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
     <t>Person B ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person B hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person B wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
-    <t>Person C ist männlich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person C hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person C wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+    <t>Person C ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person C hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person C wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
     <t>Person D ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person D hat nach dem Abitur ein Studium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person D wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
@@ -311,19 +311,19 @@
     <t>Person I ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Christin. Person I hat eine qualifizierte Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person I wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
-    <t>Person J ist männlich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person J hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person A ist männlich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person A hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person B ist weiblich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person B hat eine einfache Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+    <t>Person J ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person J hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person A ist männlich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person A hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person B ist weiblich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person B hat eine einfache Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
     <t>Person C ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person C hat eine qualifizierte Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
-    <t>Person D ist weiblich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person D hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person D wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person D hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person D wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
     <t>Person E ist männlich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person E hat nach dem Abitur ein Studium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person E wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
@@ -338,7 +338,7 @@
     <t>Person H ist weiblich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person I ist männlich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person I hat eine einfache Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person I wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+    <t>Person I ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person I hat eine einfache Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person I wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
     <t>Person J ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person J hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person J wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
@@ -350,7 +350,7 @@
     <t>Person B ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person B hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
-    <t>Person C ist weiblich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person C hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person C wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person C ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person C hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person C wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
     <t>Person D ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person D hat eine qualifizierte Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
@@ -371,19 +371,19 @@
     <t>Person I ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person I hat nach dem Abitur ein Studium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person I wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
-    <t>Person J ist männlich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person J hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person J wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+    <t>Person J ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person J hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person J wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
     <t>Person A ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person A hat eine qualifizierte Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
-    <t>Person B ist männlich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person B hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+    <t>Person B ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person B hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
     <t>Person C ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person C hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
-    <t>Person D ist weiblich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person D hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person D hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
     <t>Person E ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person E hat ein Hochschulstudium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person E wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
@@ -395,7 +395,7 @@
     <t>Person G ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person G hat eine einfache Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person H ist männlich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+    <t>Person H ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
     <t>Person I ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person I hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
@@ -410,7 +410,7 @@
     <t>Person B ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person B hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
-    <t>Person C ist weiblich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person C hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+    <t>Person C ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person C hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
     <t>Person D ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person D hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
@@ -419,25 +419,25 @@
     <t>Person E ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person E hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
-    <t>Person F ist weiblich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person F hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person F wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+    <t>Person F ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person F hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person F wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
     <t>Person G ist männlich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person G hat eine qualifizierte Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person H ist männlich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person H hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person H wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person H ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person H hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person H wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
     <t>Person I ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person I hat eine qualifizierte Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
-    <t>Person J ist weiblich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person J hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+    <t>Person J ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person J hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
     <t>Person A ist männlich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person A hat nach dem Abitur ein Studium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person A wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
-    <t>Person B ist männlich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person B hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+    <t>Person B ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person B hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
     <t>Person C ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person C hat nach dem Abitur ein Studium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person C wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
@@ -455,10 +455,10 @@
     <t>Person G ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person G hat eine qualifizierte Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person G wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
-    <t>Person H ist männlich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person H hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person H wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person I ist weiblich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Christin. Person I hat eine einfache Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person I wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+    <t>Person H ist männlich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person H hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person H wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person I ist weiblich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Christin. Person I hat eine einfache Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person I wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
     <t>Person J ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person J hat eine qualifizierte Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
@@ -473,16 +473,16 @@
     <t>Person C ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person C hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person C wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
-    <t>Person D ist weiblich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person D hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person D hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
     <t>Person E ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person E hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person E wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
-    <t>Person F ist männlich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person F hat eine einfache Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person F wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person G ist weiblich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person G hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+    <t>Person F ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person F hat eine einfache Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person F wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person G ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person G hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
     <t>Person H ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person H hat ein Hochschulstudium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
@@ -497,10 +497,10 @@
     <t>Person B ist männlich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person B hat eine qualifizierte Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person B wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
-    <t>Person C ist weiblich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person C hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person D ist weiblich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person D hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+    <t>Person C ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person C hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person D hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
     <t>Person E ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person E hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
@@ -509,7 +509,7 @@
     <t>Person F ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person F hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person F wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person G ist männlich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person G hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+    <t>Person G ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person G hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
     <t>Person H ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person H hat eine einfache Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
@@ -518,19 +518,19 @@
     <t>Person I ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person I hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person I wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
-    <t>Person A ist weiblich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person A hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+    <t>Person A ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person A hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
     <t>Person B ist weiblich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person B hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
-    <t>Person C ist männlich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person C hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+    <t>Person C ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person C hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
     <t>Person D ist weiblich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person D hat nach dem Abitur ein Studium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
-    <t>Person E ist männlich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person E hat eine einfache Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person E ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person E hat eine einfache Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
     <t>Person F ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person F hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person F wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
@@ -545,13 +545,13 @@
     <t>Person I ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person I hat ein Hochschulstudium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person I wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person A ist weiblich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person A hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person A wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person B ist männlich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person B hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person B wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person C ist männlich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person C hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person C wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+    <t>Person A ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person A hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person A wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person B ist männlich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person B hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person B wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person C ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person C hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person C wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
     <t>Person D ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person D hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person D wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
@@ -575,7 +575,7 @@
     <t>Person A ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person A hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
-    <t>Person B ist männlich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person B hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person B wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+    <t>Person B ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person B hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person B wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
     <t>Person C ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person C hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
@@ -593,13 +593,13 @@
     <t>Person G ist weiblich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person G hat nach dem Abitur ein Studium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person G wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
-    <t>Person H ist weiblich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person I ist weiblich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person I hat eine einfache Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person A ist männlich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person A hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+    <t>Person H ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person I ist weiblich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person I hat eine einfache Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person A ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person A hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
     <t>Person B ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person B hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
@@ -611,7 +611,7 @@
     <t>Person D ist weiblich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person D hat nach dem Abitur ein Studium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person D wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
-    <t>Person E ist weiblich und 35 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person E hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person E wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+    <t>Person E ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person E hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person E wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
     <t>Person F ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person F hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person F wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
@@ -620,10 +620,10 @@
     <t>Person G ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person G hat eine qualifizierte Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person H ist weiblich und 35 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person H hat eine einfache Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person I ist weiblich und 35 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person I hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person H ist weiblich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person H hat eine einfache Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person I ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person I hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
 </sst>
 </file>

--- a/output/vignettes_DE.xlsx
+++ b/output/vignettes_DE.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiturra\Documents\documentos-pcloud\factorial-cohesion\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0107B60-789C-43C7-9F96-ADF6BBEAB1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -101,19 +109,19 @@
     <t>nicht religiös.</t>
   </si>
   <si>
-    <t>eine qualifizierte Berufsausbildung,</t>
-  </si>
-  <si>
-    <t>nach dem Hauptschulabschluss eine Lehre,</t>
-  </si>
-  <si>
-    <t>eine einfache Berufsausbildung,</t>
-  </si>
-  <si>
-    <t>nach dem Abitur ein Studium,</t>
-  </si>
-  <si>
-    <t>nach dem Realschulabschluss eine Berufsausbildung,</t>
+    <t>eine qualifizierte Berufsausbildung</t>
+  </si>
+  <si>
+    <t>nach dem Hauptschulabschluss eine Lehre</t>
+  </si>
+  <si>
+    <t>eine einfache Berufsausbildung</t>
+  </si>
+  <si>
+    <t>nach dem Abitur ein Studium</t>
+  </si>
+  <si>
+    <t>nach dem Realschulabschluss eine Berufsausbildung</t>
   </si>
   <si>
     <t>ein Hochschulstudium,</t>
@@ -194,73 +202,73 @@
     <t>J</t>
   </si>
   <si>
-    <t>Person A ist männlich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person A hat eine qualifizierte Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person B ist männlich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person B hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person B wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person C ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person C hat eine einfache Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person D hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person D wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person E ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person E hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person E wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+    <t>Person A ist männlich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person A hat eine qualifizierte Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person B ist männlich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person B hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person B wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person C ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person C hat eine einfache Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person D hat nach dem Abitur ein Studium absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person D wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person E ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person E hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person E wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
     <t>Person F ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person F hat ein Hochschulstudium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person F wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person G ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person G hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person G wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person H ist weiblich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person I ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person I hat nach dem Abitur ein Studium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person I wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person J ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person J hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person A ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person A hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person B ist männlich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person B hat eine qualifizierte Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person C ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person C hat nach dem Abitur ein Studium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person D ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person D hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person E ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person E hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person F ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person F hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person F wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person G ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person G hat nach dem Abitur ein Studium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person H ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Christin. Person H hat eine qualifizierte Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person I ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person I hat eine einfache Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person I wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person J ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person J hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person A ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person A hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person B ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person B hat eine qualifizierte Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person C ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person C hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+    <t>Person G ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person G hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person G wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person H ist weiblich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person H hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person I ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person I hat nach dem Abitur ein Studium absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person I wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person J ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person J hat nach dem Hauptschulabschluss eine Lehre absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person A ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person A hat nach dem Hauptschulabschluss eine Lehre absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person B ist männlich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person B hat eine qualifizierte Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person C ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person C hat nach dem Abitur ein Studium absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person D ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person D hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person E ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person E hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person F ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person F hat nach dem Abitur ein Studium absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person F wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person G ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person G hat nach dem Abitur ein Studium absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person H ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Christin. Person H hat eine qualifizierte Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person I ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person I hat eine einfache Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person I wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person J ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person J hat nach dem Hauptschulabschluss eine Lehre absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person A ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person A hat nach dem Abitur ein Studium absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person B ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person B hat eine qualifizierte Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person C ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person C hat nach dem Hauptschulabschluss eine Lehre absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
     <t>Person D ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person D hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person D wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
@@ -269,371 +277,370 @@
     <t>Person E ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person E hat ein Hochschulstudium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person E wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
-    <t>Person F ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person F hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person F wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person G ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person G hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person H ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person I ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person I hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person I wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person J ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person J hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person J wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person A ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person A hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person B ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person B hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person B wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person C ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person C hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person C wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person D ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person D hat nach dem Abitur ein Studium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person D wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person E ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person E hat eine einfache Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person E wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+    <t>Person F ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person F hat nach dem Hauptschulabschluss eine Lehre absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person F wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person G ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person G hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person H ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person H hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person I ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person I hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person I wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person J ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person J hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person J wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person A ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person A hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person B ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person B hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person B wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person C ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person C hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person C wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person D ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person D hat nach dem Abitur ein Studium absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person D wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person E ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person E hat eine einfache Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person E wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
     <t>Person F ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person F hat ein Hochschulstudium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person F wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
-    <t>Person G ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person G hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person H ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person I ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Christin. Person I hat eine qualifizierte Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person I wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person G ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person G hat nach dem Hauptschulabschluss eine Lehre absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person H ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person H hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person I ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Christin. Person I hat eine qualifizierte Berufsausbildung absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person I wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
     <t>Person J ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person J hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person A ist männlich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person A hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person B ist weiblich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person B hat eine einfache Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person C ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person C hat eine qualifizierte Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person D hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person D wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person E ist männlich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person E hat nach dem Abitur ein Studium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person E wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person F ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person F hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person F wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person G ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person G hat eine qualifizierte Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person G wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person H ist weiblich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person I ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person I hat eine einfache Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person I wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person J ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person J hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person J wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person A ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person A hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person B ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person B hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person C ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person C hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person C wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person D ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person D hat eine qualifizierte Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person E ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Christin. Person E hat eine einfache Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person E wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person F ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person F hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person F wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person G ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person G hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person G wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person H ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person H hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person H wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person I ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person I hat nach dem Abitur ein Studium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person I wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person A ist männlich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person A hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person B ist weiblich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person B hat eine einfache Berufsausbildung absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person C ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person C hat eine qualifizierte Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person D hat nach dem Abitur ein Studium absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person D wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person E ist männlich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person E hat nach dem Abitur ein Studium absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person E wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person F ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person F hat nach dem Hauptschulabschluss eine Lehre absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person F wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person G ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person G hat eine qualifizierte Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person G wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person H ist weiblich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person H hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person I ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person I hat eine einfache Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person I wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person J ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person J hat nach dem Abitur ein Studium absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person J wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person A ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person A hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person B ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person B hat nach dem Hauptschulabschluss eine Lehre absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person C ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person C hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person C wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person D ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person D hat eine qualifizierte Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person E ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Christin. Person E hat eine einfache Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person E wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person F ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person F hat nach dem Abitur ein Studium absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person F wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person G ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person G hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person G wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person H ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person H hat nach dem Abitur ein Studium absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person H wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person I ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person I hat nach dem Abitur ein Studium absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person I wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
     <t>Person J ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person J hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person J wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
-    <t>Person A ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person A hat eine qualifizierte Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person B ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person B hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person C ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person C hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person D hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+    <t>Person A ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person A hat eine qualifizierte Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person B ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person B hat nach dem Abitur ein Studium absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person C ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person C hat nach dem Hauptschulabschluss eine Lehre absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person D hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
     <t>Person E ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person E hat ein Hochschulstudium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person E wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
-    <t>Person F ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person F hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person F wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person G ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person G hat eine einfache Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person H ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person I ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person I hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person J ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person J hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person J wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person A ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person A hat nach dem Abitur ein Studium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person B ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person B hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person C ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person C hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person D ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person D hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person E ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person E hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person F ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person F hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person F wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person G ist männlich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person G hat eine qualifizierte Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+    <t>Person F ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person F hat nach dem Hauptschulabschluss eine Lehre absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person F wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person G ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person G hat eine einfache Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person H ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person H hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person I ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person I hat nach dem Abitur ein Studium absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person J ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person J hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person J wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person A ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person A hat nach dem Abitur ein Studium absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person B ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person B hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person C ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person C hat nach dem Abitur ein Studium absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person D ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person D hat nach dem Hauptschulabschluss eine Lehre absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person E ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person E hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person F ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person F hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person F wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person G ist männlich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person G hat eine qualifizierte Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
     <t>Person H ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person H hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person H wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
-    <t>Person I ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person I hat eine qualifizierte Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person J ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person J hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person A ist männlich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person A hat nach dem Abitur ein Studium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person A wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person I ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person I hat eine qualifizierte Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person J ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person J hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person A ist männlich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person A hat nach dem Abitur ein Studium absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person A wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
     <t>Person B ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person B hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
-    <t>Person C ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person C hat nach dem Abitur ein Studium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person C wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person D ist weiblich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person D hat nach dem Abitur ein Studium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person E ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person E hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person E wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person F ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person F hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person F wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person G ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person G hat eine qualifizierte Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person G wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person H ist männlich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person H hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person H wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person I ist weiblich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Christin. Person I hat eine einfache Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person I wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person J ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person J hat eine qualifizierte Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person A ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person A hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person B ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person B hat eine qualifizierte Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person B wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person C ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person C hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person C wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person D hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person E ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person E hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person E wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person F ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person F hat eine einfache Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person F wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person G ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person G hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+    <t>Person C ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person C hat nach dem Abitur ein Studium absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person C wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person D ist weiblich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person D hat nach dem Abitur ein Studium absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person D wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person E ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person E hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person E wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person F ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person F hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person F wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person G ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person G hat eine qualifizierte Berufsausbildung absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person G wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person H ist männlich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person H hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person H wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person I ist weiblich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Christin. Person I hat eine einfache Berufsausbildung absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person I wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person J ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person J hat eine qualifizierte Berufsausbildung absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person J wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person A ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person A hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person B ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person B hat eine qualifizierte Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person B wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person C ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person C hat nach dem Hauptschulabschluss eine Lehre absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person C wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Muslima. Person D hat nach dem Abitur ein Studium absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person E ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person E hat nach dem Hauptschulabschluss eine Lehre absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person E wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person F ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person F hat eine einfache Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person F wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person G ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person G hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
     <t>Person H ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person H hat ein Hochschulstudium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
-    <t>Person I ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person I hat nach dem Abitur ein Studium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person A ist männlich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person A hat nach dem Abitur ein Studium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person B ist männlich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person B hat eine qualifizierte Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person B wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person C ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person C hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person D hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person E ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person E hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person F ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person F hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person F wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+    <t>Person I ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person I hat nach dem Abitur ein Studium absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person A ist männlich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person A hat nach dem Abitur ein Studium absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person B ist männlich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person B hat eine qualifizierte Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person B wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person C ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person C hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person D ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person D hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person E ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person E hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person F ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Jude. Person F hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person F wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
     <t>Person G ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person G hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person H ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person H hat eine einfache Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person I ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person I hat nach dem Abitur ein Studium, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person I wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person A ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person A hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person B ist weiblich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person B hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person C ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person C hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person D ist weiblich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person D hat nach dem Abitur ein Studium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person E ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person E hat eine einfache Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person F ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person F hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person F wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person G ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person G hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person G wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person H ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person H hat eine einfache Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+    <t>Person H ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person H hat eine einfache Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person H wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person I ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person I hat nach dem Abitur ein Studium absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person I wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person A ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person A hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person B ist weiblich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Christin. Person B hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person C ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person C hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person D ist weiblich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person D hat nach dem Abitur ein Studium absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person E ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Jude. Person E hat eine einfache Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person F ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person F hat nach dem Abitur ein Studium absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person F wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person G ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person G hat nach dem Hauptschulabschluss eine Lehre absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person G wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person H ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Christ. Person H hat eine einfache Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
     <t>Person I ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person I hat ein Hochschulstudium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person I wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
   </si>
   <si>
-    <t>Person A ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person A hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person A wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person B ist männlich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person B hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person B wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person A ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person A hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person A wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person B ist männlich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person B hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person B wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
     <t>Person C ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person C hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person C wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
-    <t>Person D ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person D hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person D wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+    <t>Person D ist weiblich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person D hat nach dem Hauptschulabschluss eine Lehre absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person D wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
     <t>Person E ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Christin. Person E hat ein Hochschulstudium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
-    <t>Person F ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person F hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person F wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person G ist weiblich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person G hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person G wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person H ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person I ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person I hat eine einfache Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person A ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person A hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person B ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person B hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person B wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person C ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person C hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person D ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person D hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+    <t>Person F ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person F hat nach dem Abitur ein Studium absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person F wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person G ist weiblich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person G hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person G wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person H ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Christ. Person H hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person I ist weiblich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person I hat eine einfache Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person A ist männlich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubiger Muslim. Person A hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person A wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person B ist männlich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist nicht religiös. Person B hat nach dem Abitur ein Studium absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person B wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person C ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Muslim. Person C hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person D ist weiblich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person D hat nach dem Hauptschulabschluss eine Lehre absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person D wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
   </si>
   <si>
     <t>Person E ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Christin. Person E hat ein Hochschulstudium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person E wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
-    <t>Person F ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person F hat eine einfache Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person F wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person G ist weiblich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person G hat nach dem Abitur ein Studium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person G wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person H ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person H hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person I ist weiblich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person I hat eine einfache Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person F ist männlich und 65 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person F hat eine einfache Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person F wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person G ist weiblich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Jüdin. Person G hat nach dem Abitur ein Studium absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person G wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person H ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person H hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person I ist weiblich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Jüdin. Person I hat eine einfache Berufsausbildung absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
   <si>
     <t>Person A ist männlich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubiger Muslim. Person A hat ein Hochschulstudium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch linksstehend. Es ist Person A wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
   </si>
   <si>
-    <t>Person B ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person B hat nach dem Abitur ein Studium, absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person C ist männlich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person C hat nach dem Abitur ein Studium, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
-  </si>
-  <si>
-    <t>Person D ist weiblich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person D hat nach dem Abitur ein Studium, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person D wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person E ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person E hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person E wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
-  </si>
-  <si>
-    <t>Person F ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person F hat nach dem Hauptschulabschluss eine Lehre, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person F wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
-  </si>
-  <si>
-    <t>Person G ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person G hat eine qualifizierte Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person H ist weiblich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person H hat eine einfache Berufsausbildung, absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
-  </si>
-  <si>
-    <t>Person I ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person I hat nach dem Realschulabschluss eine Berufsausbildung, absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+    <t>Person B ist männlich und 45 Sie ist in Deutschland geboren, hat deutsche Eltern und ist nicht religiös. Person B hat nach dem Abitur ein Studium absolviert, ist Hausmann und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch linksstehend. Es ist Person B wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person C ist männlich und 65 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Jude. Person C hat nach dem Abitur ein Studium absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person C wichtig sich sicher zu fühlen, sich anderen anzupassen und Traditionen zu respektieren.</t>
+  </si>
+  <si>
+    <t>Person D ist weiblich und 65 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Muslima. Person D hat nach dem Abitur ein Studium absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person D wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person E ist weiblich und 25 Sie ist in Deutschland geboren, hat deutsche Eltern und ist gläubige Christin. Person E hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist arbeitslos und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person E wichtig persönliche Erfolge zu erzielen und das Sagen zu haben.</t>
+  </si>
+  <si>
+    <t>Person F ist männlich und 45 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubiger Christ. Person F hat nach dem Hauptschulabschluss eine Lehre absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 2,500€. Sie versteht sich selbst als politisch linksstehend. Es ist Person F wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
+  </si>
+  <si>
+    <t>Person G ist weiblich und 45 Sie ist in Syrien geboren, nach Deutschland gekommen und ist gläubige Muslima. Person G hat eine qualifizierte Berufsausbildung absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 850€. Sie versteht sich selbst als politisch in der Mitte stehend. Es ist Person G wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person H ist weiblich und 25 Sie ist in Syrien geboren, nach Deutschland gekommen und ist nicht religiös. Person H hat eine einfache Berufsausbildung absolviert, ist Hausfrau und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch uninteressiert. Es ist Person H wichtig tolerant zu sein und den Menschen in ihrer Umgebung zu helfen.</t>
+  </si>
+  <si>
+    <t>Person I ist weiblich und 25 Sie ist in Deutschland geboren, hat türkische Eltern und ist gläubige Jüdin. Person I hat nach dem Realschulabschluss eine Berufsausbildung absolviert, ist erwerbstätig und verfügt über ein monatliches Einkommen von 6,000€. Sie versteht sich selbst als politisch rechtsstehend. Es ist Person I wichtig eigene Entscheidungen zu treffen und ein unterhaltsames und abenteuerliches Leben zu führen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -645,7 +652,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -660,21 +667,337 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N145"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="88.140625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,19 +1037,19 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -758,19 +1081,19 @@
       <c r="M2" t="s">
         <v>50</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.0</v>
+    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -802,19 +1125,19 @@
       <c r="M3" t="s">
         <v>51</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -846,19 +1169,19 @@
       <c r="M4" t="s">
         <v>52</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.0</v>
+    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -890,19 +1213,19 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.0</v>
+    <row r="6" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -934,19 +1257,19 @@
       <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6.0</v>
+    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -978,19 +1301,19 @@
       <c r="M7" t="s">
         <v>55</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.0</v>
+    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1022,19 +1345,19 @@
       <c r="M8" t="s">
         <v>56</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8.0</v>
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1066,19 +1389,19 @@
       <c r="M9" t="s">
         <v>57</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.0</v>
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1110,19 +1433,19 @@
       <c r="M10" t="s">
         <v>58</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10.0</v>
+    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1154,19 +1477,19 @@
       <c r="M11" t="s">
         <v>59</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
+    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1198,19 +1521,19 @@
       <c r="M12" t="s">
         <v>50</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
+    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1242,19 +1565,19 @@
       <c r="M13" t="s">
         <v>51</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
+    <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1286,19 +1609,19 @@
       <c r="M14" t="s">
         <v>52</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4.0</v>
+    <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1330,19 +1653,19 @@
       <c r="M15" t="s">
         <v>53</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5.0</v>
+    <row r="16" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1374,19 +1697,19 @@
       <c r="M16" t="s">
         <v>54</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.0</v>
+    <row r="17" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1418,19 +1741,19 @@
       <c r="M17" t="s">
         <v>55</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7.0</v>
+    <row r="18" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1462,19 +1785,19 @@
       <c r="M18" t="s">
         <v>56</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8.0</v>
+    <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -1506,19 +1829,19 @@
       <c r="M19" t="s">
         <v>57</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9.0</v>
+    <row r="20" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1550,19 +1873,19 @@
       <c r="M20" t="s">
         <v>58</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>10.0</v>
+    <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1594,19 +1917,19 @@
       <c r="M21" t="s">
         <v>59</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.0</v>
+    <row r="22" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1638,19 +1961,19 @@
       <c r="M22" t="s">
         <v>50</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2.0</v>
+    <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -1682,19 +2005,19 @@
       <c r="M23" t="s">
         <v>51</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3.0</v>
+    <row r="24" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -1726,19 +2049,19 @@
       <c r="M24" t="s">
         <v>52</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4.0</v>
+    <row r="25" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1770,19 +2093,19 @@
       <c r="M25" t="s">
         <v>53</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5.0</v>
+    <row r="26" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1814,19 +2137,19 @@
       <c r="M26" t="s">
         <v>54</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>6.0</v>
+    <row r="27" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1858,19 +2181,19 @@
       <c r="M27" t="s">
         <v>55</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>7.0</v>
+    <row r="28" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1902,19 +2225,19 @@
       <c r="M28" t="s">
         <v>56</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>8.0</v>
+    <row r="29" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -1946,19 +2269,19 @@
       <c r="M29" t="s">
         <v>57</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>9.0</v>
+    <row r="30" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -1990,19 +2313,19 @@
       <c r="M30" t="s">
         <v>58</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>10.0</v>
+    <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -2034,19 +2357,19 @@
       <c r="M31" t="s">
         <v>59</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B32" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.0</v>
+    <row r="32" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -2078,19 +2401,19 @@
       <c r="M32" t="s">
         <v>50</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B33" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2.0</v>
+    <row r="33" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -2122,19 +2445,19 @@
       <c r="M33" t="s">
         <v>51</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B34" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3.0</v>
+    <row r="34" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -2166,19 +2489,19 @@
       <c r="M34" t="s">
         <v>52</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.0</v>
+    <row r="35" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -2210,19 +2533,19 @@
       <c r="M35" t="s">
         <v>53</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B36" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>5.0</v>
+    <row r="36" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -2254,19 +2577,19 @@
       <c r="M36" t="s">
         <v>54</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>6.0</v>
+    <row r="37" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -2298,19 +2621,19 @@
       <c r="M37" t="s">
         <v>55</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>7.0</v>
+    <row r="38" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -2342,19 +2665,19 @@
       <c r="M38" t="s">
         <v>56</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>8.0</v>
+    <row r="39" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -2386,19 +2709,19 @@
       <c r="M39" t="s">
         <v>57</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>9.0</v>
+    <row r="40" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
@@ -2430,19 +2753,19 @@
       <c r="M40" t="s">
         <v>58</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B41" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>10.0</v>
+    <row r="41" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -2474,19 +2797,19 @@
       <c r="M41" t="s">
         <v>59</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="B42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.0</v>
+    <row r="42" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
@@ -2518,19 +2841,19 @@
       <c r="M42" t="s">
         <v>50</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B43" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2.0</v>
+    <row r="43" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -2562,19 +2885,19 @@
       <c r="M43" t="s">
         <v>51</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>3.0</v>
+    <row r="44" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -2606,19 +2929,19 @@
       <c r="M44" t="s">
         <v>52</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B45" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4.0</v>
+    <row r="45" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -2650,19 +2973,19 @@
       <c r="M45" t="s">
         <v>53</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="B46" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>5.0</v>
+    <row r="46" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
@@ -2694,19 +3017,19 @@
       <c r="M46" t="s">
         <v>54</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>6.0</v>
+    <row r="47" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -2738,19 +3061,19 @@
       <c r="M47" t="s">
         <v>55</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="B48" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>7.0</v>
+    <row r="48" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -2782,19 +3105,19 @@
       <c r="M48" t="s">
         <v>56</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="B49" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>8.0</v>
+    <row r="49" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
@@ -2826,19 +3149,19 @@
       <c r="M49" t="s">
         <v>57</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="B50" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>9.0</v>
+    <row r="50" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -2870,19 +3193,19 @@
       <c r="M50" t="s">
         <v>58</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B51" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>10.0</v>
+    <row r="51" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -2914,19 +3237,19 @@
       <c r="M51" t="s">
         <v>59</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B52" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.0</v>
+    <row r="52" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -2958,19 +3281,19 @@
       <c r="M52" t="s">
         <v>50</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N52" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="B53" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2.0</v>
+    <row r="53" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -3002,19 +3325,19 @@
       <c r="M53" t="s">
         <v>51</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="B54" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>3.0</v>
+    <row r="54" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -3046,19 +3369,19 @@
       <c r="M54" t="s">
         <v>52</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N54" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="B55" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4.0</v>
+    <row r="55" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
@@ -3090,19 +3413,19 @@
       <c r="M55" t="s">
         <v>53</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="B56" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>5.0</v>
+    <row r="56" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
@@ -3134,19 +3457,19 @@
       <c r="M56" t="s">
         <v>54</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="B57" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>6.0</v>
+    <row r="57" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
@@ -3178,19 +3501,19 @@
       <c r="M57" t="s">
         <v>55</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N57" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="B58" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>7.0</v>
+    <row r="58" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
@@ -3222,19 +3545,19 @@
       <c r="M58" t="s">
         <v>56</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="B59" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>8.0</v>
+    <row r="59" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -3266,19 +3589,19 @@
       <c r="M59" t="s">
         <v>57</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="B60" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>9.0</v>
+    <row r="60" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
@@ -3310,19 +3633,19 @@
       <c r="M60" t="s">
         <v>58</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="B61" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>10.0</v>
+    <row r="61" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -3354,19 +3677,19 @@
       <c r="M61" t="s">
         <v>59</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="B62" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1.0</v>
+    <row r="62" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -3398,19 +3721,19 @@
       <c r="M62" t="s">
         <v>50</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="B63" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2.0</v>
+    <row r="63" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
@@ -3442,19 +3765,19 @@
       <c r="M63" t="s">
         <v>51</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N63" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="B64" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3.0</v>
+    <row r="64" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
@@ -3486,19 +3809,19 @@
       <c r="M64" t="s">
         <v>52</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N64" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="B65" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4.0</v>
+    <row r="65" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
@@ -3530,19 +3853,19 @@
       <c r="M65" t="s">
         <v>53</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N65" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="B66" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5.0</v>
+    <row r="66" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
@@ -3574,19 +3897,19 @@
       <c r="M66" t="s">
         <v>54</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N66" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="B67" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>6.0</v>
+    <row r="67" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -3618,19 +3941,19 @@
       <c r="M67" t="s">
         <v>55</v>
       </c>
-      <c r="N67" t="s">
+      <c r="N67" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="B68" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>7.0</v>
+    <row r="68" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -3662,19 +3985,19 @@
       <c r="M68" t="s">
         <v>56</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N68" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="B69" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>8.0</v>
+    <row r="69" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -3706,19 +4029,19 @@
       <c r="M69" t="s">
         <v>57</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N69" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="B70" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>9.0</v>
+    <row r="70" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
@@ -3750,19 +4073,19 @@
       <c r="M70" t="s">
         <v>58</v>
       </c>
-      <c r="N70" t="s">
+      <c r="N70" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="B71" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10.0</v>
+    <row r="71" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
@@ -3794,19 +4117,19 @@
       <c r="M71" t="s">
         <v>59</v>
       </c>
-      <c r="N71" t="s">
+      <c r="N71" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="B72" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1.0</v>
+    <row r="72" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
@@ -3838,19 +4161,19 @@
       <c r="M72" t="s">
         <v>50</v>
       </c>
-      <c r="N72" t="s">
+      <c r="N72" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="B73" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2.0</v>
+    <row r="73" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
@@ -3882,19 +4205,19 @@
       <c r="M73" t="s">
         <v>51</v>
       </c>
-      <c r="N73" t="s">
+      <c r="N73" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="B74" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>3.0</v>
+    <row r="74" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
@@ -3926,19 +4249,19 @@
       <c r="M74" t="s">
         <v>52</v>
       </c>
-      <c r="N74" t="s">
+      <c r="N74" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="B75" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>4.0</v>
+    <row r="75" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -3970,19 +4293,19 @@
       <c r="M75" t="s">
         <v>53</v>
       </c>
-      <c r="N75" t="s">
+      <c r="N75" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="B76" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>5.0</v>
+    <row r="76" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
@@ -4014,19 +4337,19 @@
       <c r="M76" t="s">
         <v>54</v>
       </c>
-      <c r="N76" t="s">
+      <c r="N76" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="B77" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>6.0</v>
+    <row r="77" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
@@ -4058,19 +4381,19 @@
       <c r="M77" t="s">
         <v>55</v>
       </c>
-      <c r="N77" t="s">
+      <c r="N77" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="B78" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>7.0</v>
+    <row r="78" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -4102,19 +4425,19 @@
       <c r="M78" t="s">
         <v>56</v>
       </c>
-      <c r="N78" t="s">
+      <c r="N78" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="B79" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8.0</v>
+    <row r="79" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
@@ -4146,19 +4469,19 @@
       <c r="M79" t="s">
         <v>57</v>
       </c>
-      <c r="N79" t="s">
+      <c r="N79" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="B80" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>9.0</v>
+    <row r="80" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
@@ -4190,19 +4513,19 @@
       <c r="M80" t="s">
         <v>58</v>
       </c>
-      <c r="N80" t="s">
+      <c r="N80" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="B81" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>10.0</v>
+    <row r="81" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
@@ -4234,19 +4557,19 @@
       <c r="M81" t="s">
         <v>59</v>
       </c>
-      <c r="N81" t="s">
+      <c r="N81" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="B82" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1.0</v>
+    <row r="82" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
@@ -4278,19 +4601,19 @@
       <c r="M82" t="s">
         <v>50</v>
       </c>
-      <c r="N82" t="s">
+      <c r="N82" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="B83" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2.0</v>
+    <row r="83" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
@@ -4322,19 +4645,19 @@
       <c r="M83" t="s">
         <v>51</v>
       </c>
-      <c r="N83" t="s">
+      <c r="N83" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="B84" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3.0</v>
+    <row r="84" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
@@ -4366,19 +4689,19 @@
       <c r="M84" t="s">
         <v>52</v>
       </c>
-      <c r="N84" t="s">
+      <c r="N84" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="B85" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>4.0</v>
+    <row r="85" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
@@ -4410,19 +4733,19 @@
       <c r="M85" t="s">
         <v>53</v>
       </c>
-      <c r="N85" t="s">
+      <c r="N85" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="B86" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>5.0</v>
+    <row r="86" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -4454,19 +4777,19 @@
       <c r="M86" t="s">
         <v>54</v>
       </c>
-      <c r="N86" t="s">
+      <c r="N86" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C87" t="n">
-        <v>6.0</v>
+    <row r="87" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
@@ -4498,19 +4821,19 @@
       <c r="M87" t="s">
         <v>55</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N87" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="B88" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>7.0</v>
+    <row r="88" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
@@ -4542,19 +4865,19 @@
       <c r="M88" t="s">
         <v>56</v>
       </c>
-      <c r="N88" t="s">
+      <c r="N88" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="B89" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>8.0</v>
+    <row r="89" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -4586,19 +4909,19 @@
       <c r="M89" t="s">
         <v>57</v>
       </c>
-      <c r="N89" t="s">
+      <c r="N89" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="B90" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>9.0</v>
+    <row r="90" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
@@ -4630,19 +4953,19 @@
       <c r="M90" t="s">
         <v>58</v>
       </c>
-      <c r="N90" t="s">
+      <c r="N90" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>10.0</v>
+    <row r="91" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
@@ -4674,19 +4997,19 @@
       <c r="M91" t="s">
         <v>59</v>
       </c>
-      <c r="N91" t="s">
+      <c r="N91" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="B92" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1.0</v>
+    <row r="92" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
@@ -4718,19 +5041,19 @@
       <c r="M92" t="s">
         <v>50</v>
       </c>
-      <c r="N92" t="s">
+      <c r="N92" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="B93" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2.0</v>
+    <row r="93" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -4762,19 +5085,19 @@
       <c r="M93" t="s">
         <v>51</v>
       </c>
-      <c r="N93" t="s">
+      <c r="N93" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="B94" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>3.0</v>
+    <row r="94" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
@@ -4806,19 +5129,19 @@
       <c r="M94" t="s">
         <v>52</v>
       </c>
-      <c r="N94" t="s">
+      <c r="N94" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="B95" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>4.0</v>
+    <row r="95" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
@@ -4850,19 +5173,19 @@
       <c r="M95" t="s">
         <v>53</v>
       </c>
-      <c r="N95" t="s">
+      <c r="N95" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5.0</v>
+    <row r="96" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
@@ -4894,19 +5217,19 @@
       <c r="M96" t="s">
         <v>54</v>
       </c>
-      <c r="N96" t="s">
+      <c r="N96" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="B97" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>6.0</v>
+    <row r="97" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
@@ -4938,19 +5261,19 @@
       <c r="M97" t="s">
         <v>55</v>
       </c>
-      <c r="N97" t="s">
+      <c r="N97" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="B98" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>7.0</v>
+    <row r="98" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
@@ -4982,19 +5305,19 @@
       <c r="M98" t="s">
         <v>56</v>
       </c>
-      <c r="N98" t="s">
+      <c r="N98" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="B99" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>8.0</v>
+    <row r="99" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
@@ -5026,19 +5349,19 @@
       <c r="M99" t="s">
         <v>57</v>
       </c>
-      <c r="N99" t="s">
+      <c r="N99" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="B100" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C100" t="n">
-        <v>9.0</v>
+    <row r="100" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>9</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
@@ -5070,19 +5393,19 @@
       <c r="M100" t="s">
         <v>58</v>
       </c>
-      <c r="N100" t="s">
+      <c r="N100" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="B101" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1.0</v>
+    <row r="101" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -5114,19 +5437,19 @@
       <c r="M101" t="s">
         <v>50</v>
       </c>
-      <c r="N101" t="s">
+      <c r="N101" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="B102" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2.0</v>
+    <row r="102" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
       </c>
       <c r="D102" t="s">
         <v>14</v>
@@ -5158,19 +5481,19 @@
       <c r="M102" t="s">
         <v>51</v>
       </c>
-      <c r="N102" t="s">
+      <c r="N102" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="B103" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>3.0</v>
+    <row r="103" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
@@ -5202,19 +5525,19 @@
       <c r="M103" t="s">
         <v>52</v>
       </c>
-      <c r="N103" t="s">
+      <c r="N103" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="B104" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>4.0</v>
+    <row r="104" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>11</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
@@ -5246,19 +5569,19 @@
       <c r="M104" t="s">
         <v>53</v>
       </c>
-      <c r="N104" t="s">
+      <c r="N104" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="B105" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>5.0</v>
+    <row r="105" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
       </c>
       <c r="D105" t="s">
         <v>14</v>
@@ -5290,19 +5613,19 @@
       <c r="M105" t="s">
         <v>54</v>
       </c>
-      <c r="N105" t="s">
+      <c r="N105" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="B106" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C106" t="n">
-        <v>6.0</v>
+    <row r="106" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>11</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
@@ -5334,19 +5657,19 @@
       <c r="M106" t="s">
         <v>55</v>
       </c>
-      <c r="N106" t="s">
+      <c r="N106" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="B107" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>7.0</v>
+    <row r="107" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>11</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
@@ -5378,19 +5701,19 @@
       <c r="M107" t="s">
         <v>56</v>
       </c>
-      <c r="N107" t="s">
+      <c r="N107" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="B108" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C108" t="n">
-        <v>8.0</v>
+    <row r="108" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
@@ -5422,19 +5745,19 @@
       <c r="M108" t="s">
         <v>57</v>
       </c>
-      <c r="N108" t="s">
+      <c r="N108" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="B109" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C109" t="n">
-        <v>9.0</v>
+    <row r="109" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>9</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
@@ -5466,19 +5789,19 @@
       <c r="M109" t="s">
         <v>58</v>
       </c>
-      <c r="N109" t="s">
+      <c r="N109" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="B110" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1.0</v>
+    <row r="110" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
@@ -5510,19 +5833,19 @@
       <c r="M110" t="s">
         <v>50</v>
       </c>
-      <c r="N110" t="s">
+      <c r="N110" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="B111" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C111" t="n">
-        <v>2.0</v>
+    <row r="111" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>12</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
@@ -5554,19 +5877,19 @@
       <c r="M111" t="s">
         <v>51</v>
       </c>
-      <c r="N111" t="s">
+      <c r="N111" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>111.0</v>
-      </c>
-      <c r="B112" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>3.0</v>
+    <row r="112" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
@@ -5598,19 +5921,19 @@
       <c r="M112" t="s">
         <v>52</v>
       </c>
-      <c r="N112" t="s">
+      <c r="N112" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>112.0</v>
-      </c>
-      <c r="B113" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C113" t="n">
-        <v>4.0</v>
+    <row r="113" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
@@ -5642,19 +5965,19 @@
       <c r="M113" t="s">
         <v>53</v>
       </c>
-      <c r="N113" t="s">
+      <c r="N113" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="B114" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C114" t="n">
-        <v>5.0</v>
+    <row r="114" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>12</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
@@ -5686,19 +6009,19 @@
       <c r="M114" t="s">
         <v>54</v>
       </c>
-      <c r="N114" t="s">
+      <c r="N114" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>114.0</v>
-      </c>
-      <c r="B115" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C115" t="n">
-        <v>6.0</v>
+    <row r="115" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
       </c>
       <c r="D115" t="s">
         <v>14</v>
@@ -5730,19 +6053,19 @@
       <c r="M115" t="s">
         <v>55</v>
       </c>
-      <c r="N115" t="s">
+      <c r="N115" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="B116" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>7.0</v>
+    <row r="116" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
@@ -5774,19 +6097,19 @@
       <c r="M116" t="s">
         <v>56</v>
       </c>
-      <c r="N116" t="s">
+      <c r="N116" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>116.0</v>
-      </c>
-      <c r="B117" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C117" t="n">
-        <v>8.0</v>
+    <row r="117" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
       </c>
       <c r="D117" t="s">
         <v>14</v>
@@ -5818,19 +6141,19 @@
       <c r="M117" t="s">
         <v>57</v>
       </c>
-      <c r="N117" t="s">
+      <c r="N117" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>117.0</v>
-      </c>
-      <c r="B118" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C118" t="n">
-        <v>9.0</v>
+    <row r="118" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>9</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
@@ -5862,19 +6185,19 @@
       <c r="M118" t="s">
         <v>58</v>
       </c>
-      <c r="N118" t="s">
+      <c r="N118" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="B119" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1.0</v>
+    <row r="119" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>13</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
@@ -5906,19 +6229,19 @@
       <c r="M119" t="s">
         <v>50</v>
       </c>
-      <c r="N119" t="s">
+      <c r="N119" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="B120" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C120" t="n">
-        <v>2.0</v>
+    <row r="120" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>13</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
       </c>
       <c r="D120" t="s">
         <v>14</v>
@@ -5950,19 +6273,19 @@
       <c r="M120" t="s">
         <v>51</v>
       </c>
-      <c r="N120" t="s">
+      <c r="N120" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="B121" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>3.0</v>
+    <row r="121" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>13</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
       </c>
       <c r="D121" t="s">
         <v>14</v>
@@ -5994,19 +6317,19 @@
       <c r="M121" t="s">
         <v>52</v>
       </c>
-      <c r="N121" t="s">
+      <c r="N121" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="B122" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C122" t="n">
-        <v>4.0</v>
+    <row r="122" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>13</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
@@ -6038,19 +6361,19 @@
       <c r="M122" t="s">
         <v>53</v>
       </c>
-      <c r="N122" t="s">
+      <c r="N122" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>122.0</v>
-      </c>
-      <c r="B123" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C123" t="n">
-        <v>5.0</v>
+    <row r="123" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>13</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
@@ -6082,19 +6405,19 @@
       <c r="M123" t="s">
         <v>54</v>
       </c>
-      <c r="N123" t="s">
+      <c r="N123" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="B124" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C124" t="n">
-        <v>6.0</v>
+    <row r="124" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>13</v>
+      </c>
+      <c r="C124">
+        <v>6</v>
       </c>
       <c r="D124" t="s">
         <v>14</v>
@@ -6126,19 +6449,19 @@
       <c r="M124" t="s">
         <v>55</v>
       </c>
-      <c r="N124" t="s">
+      <c r="N124" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="B125" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C125" t="n">
-        <v>7.0</v>
+    <row r="125" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>13</v>
+      </c>
+      <c r="C125">
+        <v>7</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
@@ -6170,19 +6493,19 @@
       <c r="M125" t="s">
         <v>56</v>
       </c>
-      <c r="N125" t="s">
+      <c r="N125" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="B126" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>8.0</v>
+    <row r="126" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>13</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
       </c>
       <c r="D126" t="s">
         <v>14</v>
@@ -6214,19 +6537,19 @@
       <c r="M126" t="s">
         <v>57</v>
       </c>
-      <c r="N126" t="s">
+      <c r="N126" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>126.0</v>
-      </c>
-      <c r="B127" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C127" t="n">
-        <v>9.0</v>
+    <row r="127" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>9</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
@@ -6258,19 +6581,19 @@
       <c r="M127" t="s">
         <v>58</v>
       </c>
-      <c r="N127" t="s">
+      <c r="N127" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>127.0</v>
-      </c>
-      <c r="B128" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1.0</v>
+    <row r="128" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
       </c>
       <c r="D128" t="s">
         <v>14</v>
@@ -6302,19 +6625,19 @@
       <c r="M128" t="s">
         <v>50</v>
       </c>
-      <c r="N128" t="s">
+      <c r="N128" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>128.0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2.0</v>
+    <row r="129" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
       </c>
       <c r="D129" t="s">
         <v>14</v>
@@ -6346,19 +6669,19 @@
       <c r="M129" t="s">
         <v>51</v>
       </c>
-      <c r="N129" t="s">
+      <c r="N129" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="B130" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C130" t="n">
-        <v>3.0</v>
+    <row r="130" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>14</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
       </c>
       <c r="D130" t="s">
         <v>14</v>
@@ -6390,19 +6713,19 @@
       <c r="M130" t="s">
         <v>52</v>
       </c>
-      <c r="N130" t="s">
+      <c r="N130" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="B131" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C131" t="n">
-        <v>4.0</v>
+    <row r="131" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>14</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
@@ -6434,19 +6757,19 @@
       <c r="M131" t="s">
         <v>53</v>
       </c>
-      <c r="N131" t="s">
+      <c r="N131" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="B132" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C132" t="n">
-        <v>5.0</v>
+    <row r="132" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
@@ -6478,19 +6801,19 @@
       <c r="M132" t="s">
         <v>54</v>
       </c>
-      <c r="N132" t="s">
+      <c r="N132" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="B133" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C133" t="n">
-        <v>6.0</v>
+    <row r="133" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>14</v>
+      </c>
+      <c r="C133">
+        <v>6</v>
       </c>
       <c r="D133" t="s">
         <v>14</v>
@@ -6522,19 +6845,19 @@
       <c r="M133" t="s">
         <v>55</v>
       </c>
-      <c r="N133" t="s">
+      <c r="N133" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="B134" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C134" t="n">
-        <v>7.0</v>
+    <row r="134" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>14</v>
+      </c>
+      <c r="C134">
+        <v>7</v>
       </c>
       <c r="D134" t="s">
         <v>15</v>
@@ -6566,19 +6889,19 @@
       <c r="M134" t="s">
         <v>56</v>
       </c>
-      <c r="N134" t="s">
+      <c r="N134" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="B135" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>8.0</v>
+    <row r="135" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>14</v>
+      </c>
+      <c r="C135">
+        <v>8</v>
       </c>
       <c r="D135" t="s">
         <v>15</v>
@@ -6610,19 +6933,19 @@
       <c r="M135" t="s">
         <v>57</v>
       </c>
-      <c r="N135" t="s">
+      <c r="N135" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>135.0</v>
-      </c>
-      <c r="B136" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C136" t="n">
-        <v>9.0</v>
+    <row r="136" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136">
+        <v>9</v>
       </c>
       <c r="D136" t="s">
         <v>15</v>
@@ -6654,19 +6977,19 @@
       <c r="M136" t="s">
         <v>58</v>
       </c>
-      <c r="N136" t="s">
+      <c r="N136" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="B137" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1.0</v>
+    <row r="137" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>15</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
       </c>
       <c r="D137" t="s">
         <v>14</v>
@@ -6698,19 +7021,19 @@
       <c r="M137" t="s">
         <v>50</v>
       </c>
-      <c r="N137" t="s">
+      <c r="N137" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>137.0</v>
-      </c>
-      <c r="B138" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C138" t="n">
-        <v>2.0</v>
+    <row r="138" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>15</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
       </c>
       <c r="D138" t="s">
         <v>14</v>
@@ -6742,19 +7065,19 @@
       <c r="M138" t="s">
         <v>51</v>
       </c>
-      <c r="N138" t="s">
+      <c r="N138" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>138.0</v>
-      </c>
-      <c r="B139" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C139" t="n">
-        <v>3.0</v>
+    <row r="139" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>15</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
       </c>
       <c r="D139" t="s">
         <v>14</v>
@@ -6786,19 +7109,19 @@
       <c r="M139" t="s">
         <v>52</v>
       </c>
-      <c r="N139" t="s">
+      <c r="N139" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>139.0</v>
-      </c>
-      <c r="B140" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C140" t="n">
-        <v>4.0</v>
+    <row r="140" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
       </c>
       <c r="D140" t="s">
         <v>15</v>
@@ -6830,19 +7153,19 @@
       <c r="M140" t="s">
         <v>53</v>
       </c>
-      <c r="N140" t="s">
+      <c r="N140" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="B141" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C141" t="n">
-        <v>5.0</v>
+    <row r="141" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>15</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
@@ -6874,19 +7197,19 @@
       <c r="M141" t="s">
         <v>54</v>
       </c>
-      <c r="N141" t="s">
+      <c r="N141" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="B142" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C142" t="n">
-        <v>6.0</v>
+    <row r="142" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>15</v>
+      </c>
+      <c r="C142">
+        <v>6</v>
       </c>
       <c r="D142" t="s">
         <v>14</v>
@@ -6918,19 +7241,19 @@
       <c r="M142" t="s">
         <v>55</v>
       </c>
-      <c r="N142" t="s">
+      <c r="N142" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="B143" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C143" t="n">
-        <v>7.0</v>
+    <row r="143" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>15</v>
+      </c>
+      <c r="C143">
+        <v>7</v>
       </c>
       <c r="D143" t="s">
         <v>15</v>
@@ -6962,19 +7285,19 @@
       <c r="M143" t="s">
         <v>56</v>
       </c>
-      <c r="N143" t="s">
+      <c r="N143" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>143.0</v>
-      </c>
-      <c r="B144" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C144" t="n">
-        <v>8.0</v>
+    <row r="144" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>15</v>
+      </c>
+      <c r="C144">
+        <v>8</v>
       </c>
       <c r="D144" t="s">
         <v>15</v>
@@ -7006,19 +7329,19 @@
       <c r="M144" t="s">
         <v>57</v>
       </c>
-      <c r="N144" t="s">
+      <c r="N144" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>144.0</v>
-      </c>
-      <c r="B145" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C145" t="n">
-        <v>9.0</v>
+    <row r="145" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>15</v>
+      </c>
+      <c r="C145">
+        <v>9</v>
       </c>
       <c r="D145" t="s">
         <v>15</v>
@@ -7050,11 +7373,11 @@
       <c r="M145" t="s">
         <v>58</v>
       </c>
-      <c r="N145" t="s">
+      <c r="N145" s="1" t="s">
         <v>203</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>